--- a/data/590_P_features_case.xlsx
+++ b/data/590_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5510,790 +5510,6 @@
         <v>0.79127</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1.000950498229044</v>
-      </c>
-      <c r="B91" t="n">
-        <v>69.29589698468919</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.783096883004409e-05</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-0.2836796042525825</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.231694947618847e-06</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.002170485093439028</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-2.348723551341833e-07</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0003096832193746126</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.1505035172747888</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.0002059688411163027</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-0.00247188390563033</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.002760402856635062</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.0004497640544736063</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-0.0001573777628348695</v>
-      </c>
-      <c r="O91" t="n">
-        <v>-0.001031009575797487</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0.0007313810599876632</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>7696.940789939922</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.80485</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1.000979419800978</v>
-      </c>
-      <c r="B92" t="n">
-        <v>69.43501872153819</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.852367846666978e-05</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.3026592877430457</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.117510727076916e-06</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.002027708791338196</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-2.514230064294158e-08</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.0002809562943415792</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.1406410006175671</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.0002256677081688873</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-0.002353202363579505</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.002495591988966653</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.0004356652645751129</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-0.0001679256277113746</v>
-      </c>
-      <c r="O92" t="n">
-        <v>-0.0009732207751805625</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0.0006980443622036727</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>7706.003068640682</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.8186399999999999</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1.001007591836735</v>
-      </c>
-      <c r="B93" t="n">
-        <v>69.56783294915763</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.547225534708687e-05</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-0.3209908747889769</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.066726211562981e-06</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.001885270337172677</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-4.116289316491864e-07</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.0002733337163776331</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.1308652497603306</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.0002015457295278577</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-0.002236680014672139</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.002582168664189202</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.0004193118183819231</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-0.00017769956504817</v>
-      </c>
-      <c r="O93" t="n">
-        <v>-0.0008567604654412548</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.0006794153113573001</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>7714.6460318278</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.8324299999999999</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1.001033840445269</v>
-      </c>
-      <c r="B94" t="n">
-        <v>69.6936448717228</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.558186776259903e-05</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-0.3380126143887857</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.036510057579915e-06</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.001745595133399224</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-8.339436213614363e-07</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.0002607477361833923</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.1213293934971383</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0001682995459421223</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-0.002119767996740128</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.002610783163188584</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.0004014380076597631</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-0.0001798331458258466</v>
-      </c>
-      <c r="O94" t="n">
-        <v>-0.0007442844978051582</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0.0006395023291815371</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>7722.842912468114</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.84621</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1.001056801146905</v>
-      </c>
-      <c r="B95" t="n">
-        <v>69.81083189970202</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.660857023609062e-05</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.3532466401904013</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.095958216736734e-06</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.001609619745554461</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-3.901313387363776e-07</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.0002764809678605667</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.1120679571918299</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.0001962058314501232</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-0.00198902020715129</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.002872274514334196</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.0003782200657177911</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-0.0001715992717349545</v>
-      </c>
-      <c r="O95" t="n">
-        <v>-0.0006723514039075639</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0.0006126272611348085</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>7730.491502616403</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1.001076569404622</v>
-      </c>
-      <c r="B96" t="n">
-        <v>69.91865673431907</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.260992889098743e-05</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-0.3663402966548602</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.859481905607693e-07</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.001447498425901692</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-2.305032959527686e-07</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.0002767831758482562</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.1008930411987624</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.0002063664217304398</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-0.001840313606036296</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.00265453258088068</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.0003486188085301875</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-0.00015249735578557</v>
-      </c>
-      <c r="O96" t="n">
-        <v>-0.0006456338771759975</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0.0005706729061546523</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>7737.538525643692</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.8739399999999999</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1.001093908584922</v>
-      </c>
-      <c r="B97" t="n">
-        <v>70.01504713180037</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.529498760888837e-05</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-0.376282164464684</v>
-      </c>
-      <c r="E97" t="n">
-        <v>9.355150358146054e-07</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.001281877464931455</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1.750445107977713e-07</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.0003038637525823916</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.08942679608440469</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0002066264113342366</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-0.0016800685130072</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.002690160587798876</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.0003110542416005716</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-0.0001313930336902731</v>
-      </c>
-      <c r="O97" t="n">
-        <v>-0.0006362439101406307</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.0005540994394961046</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>7743.8447591403</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.8878799999999999</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1.001110227019734</v>
-      </c>
-      <c r="B98" t="n">
-        <v>70.09961237607992</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.695381631753365e-05</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-0.3828522077172466</v>
-      </c>
-      <c r="E98" t="n">
-        <v>8.95492336996188e-07</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.001112164361258299</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8.866607502985681e-08</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0003189059871122056</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.07764870184465957</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.0002081256085099608</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-0.00150509872200363</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.002656195462572477</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.0002665513796543737</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-0.0001104453528701486</v>
-      </c>
-      <c r="O98" t="n">
-        <v>-0.0006026760894133993</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.0005315414720030097</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>7749.382111111281</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.9018200000000001</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1.001124899983134</v>
-      </c>
-      <c r="B99" t="n">
-        <v>70.17218774010981</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.139614011986455e-05</v>
-      </c>
-      <c r="D99" t="n">
-        <v>-0.3866103389179364</v>
-      </c>
-      <c r="E99" t="n">
-        <v>9.811809632031027e-07</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.0009355192250031394</v>
-      </c>
-      <c r="G99" t="n">
-        <v>4.985467677208294e-07</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.0003527188099995286</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.06533115688104418</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.0002105971245273704</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-0.001314910058722098</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.002821420826568617</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.0002223863431067105</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-9.394890861580781e-05</v>
-      </c>
-      <c r="O99" t="n">
-        <v>-0.000533411893223847</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0.0005246634787241561</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>7754.133759642622</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.91576</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1.00113653229887</v>
-      </c>
-      <c r="B100" t="n">
-        <v>70.232616555162</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.705229967092265e-05</v>
-      </c>
-      <c r="D100" t="n">
-        <v>-0.3874241817432208</v>
-      </c>
-      <c r="E100" t="n">
-        <v>8.766160062990051e-07</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.0007329845414071662</v>
-      </c>
-      <c r="G100" t="n">
-        <v>5.224764198805857e-07</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.0003577627389235772</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.0511192357043901</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.000179852232260453</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-0.0011196428963972</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.002596506470574689</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.0001842200835315025</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-8.245608873858549e-05</v>
-      </c>
-      <c r="O100" t="n">
-        <v>-0.0004360540254303255</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0.0005081040775463227</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>7758.088702186252</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.92979</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1.001146487434644</v>
-      </c>
-      <c r="B101" t="n">
-        <v>70.28051427072207</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.677433689443362e-05</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-0.3851879210659471</v>
-      </c>
-      <c r="E101" t="n">
-        <v>8.675025304696913e-07</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0005395971964393523</v>
-      </c>
-      <c r="G101" t="n">
-        <v>7.194930849586854e-08</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.0003822222863398324</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.03754331220538615</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.0001138777571928</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-0.0009339689256035793</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.002604600745566676</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.000152050022762437</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-7.650541759762109e-05</v>
-      </c>
-      <c r="O101" t="n">
-        <v>-0.000324015414635078</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0.0005125648869041359</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>7761.219486311598</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.9438200000000001</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1.001154969134761</v>
-      </c>
-      <c r="B102" t="n">
-        <v>70.31610329641498</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.972037180375369e-05</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-0.3797965957159724</v>
-      </c>
-      <c r="E102" t="n">
-        <v>8.623391323950752e-07</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.0003567688480960634</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-4.188546769256162e-07</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.0003924739924758045</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.02471849075622353</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4.568672269747543e-05</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-0.0007467200277074244</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.002554928065887446</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.0001201536941294129</v>
-      </c>
-      <c r="N102" t="n">
-        <v>-7.291528778203821e-05</v>
-      </c>
-      <c r="O102" t="n">
-        <v>-0.0002261617298316902</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.0005053531476635633</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>7763.536917296804</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.95785</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1.001159626243886</v>
-      </c>
-      <c r="B103" t="n">
-        <v>70.33891471299266</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.164589338072586e-05</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-0.3716803012312362</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9.58394119493709e-07</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.0001897359548192737</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-5.300180149522744e-07</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.000426948205007417</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.01302512868156944</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8.34416661495277e-06</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-0.0005458384942216904</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.002716042228941924</v>
-      </c>
-      <c r="M103" t="n">
-        <v>8.27359959329827e-05</v>
-      </c>
-      <c r="N103" t="n">
-        <v>-7.062385854051366e-05</v>
-      </c>
-      <c r="O103" t="n">
-        <v>-0.0001808010569762394</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0.000514168399748035</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>7765.012602540979</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.97188</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1.001162533310846</v>
-      </c>
-      <c r="B104" t="n">
-        <v>70.34810783156239</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.347758506774605e-05</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-0.3611039948351792</v>
-      </c>
-      <c r="E104" t="n">
-        <v>8.234650476505312e-07</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2.029509965529027e-05</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-7.274754436518794e-07</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.0004329145746996383</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.001095287463070408</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-2.983435536399237e-05</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-0.0003309953656049449</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.002477302137339031</v>
-      </c>
-      <c r="M104" t="n">
-        <v>4.20202470565098e-05</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-6.671223024322258e-05</v>
-      </c>
-      <c r="O104" t="n">
-        <v>-0.0002332384928063042</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0.0005158634977277412</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>7765.566103657869</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.9859399999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
